--- a/mantime.xlsx
+++ b/mantime.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,17 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,15 +42,305 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發票號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品項名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品項數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發票號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_Discount</t>
+    <t>yyyymmdd24HHMISS</t>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDate_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_SalesDiscount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_SalesDiscount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣金額或折數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品項名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSKEY是否生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣金額或折數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyymmdd24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHMISS</t>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_SalesItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_SalesItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_SalesItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_SalesItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptNo_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDate_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_Trans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptNo_Trans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesDiscount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_SalesDiscount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptNo_SalesDiscount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDate_Discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECEIPTNO_SALESLESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_SALESLESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME_SALESLESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT_SALESLESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -69,130 +348,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品項名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品項數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發票號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_Discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyymmdd24HHMISS</t>
-  </si>
-  <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDate_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount_SalesDiscount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_SalesDiscount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣金額或折數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_Discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount_Discount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品項名稱</t>
+    <t>VARCHAR2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,150 +356,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POSKEY是否生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣金額或折數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyymmdd24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HHMISS</t>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_SalesItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_SalesItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count_SalesItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount_SalesItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiptNo_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDate_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount_Trans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiptNo_Trans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesDiscount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_SalesDiscount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiptNo_SalesDiscount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount_Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createDate_Discount</t>
+    <t>折讓名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折讓金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -746,29 +795,29 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>15</v>
@@ -780,150 +829,148 @@
         <v>15</v>
       </c>
       <c r="F3" s="4">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
-        <v>15</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -932,24 +979,24 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -957,41 +1004,41 @@
         <v>100</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -999,27 +1046,27 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,76 +1076,76 @@
       <c r="C26" s="2">
         <v>15</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>15</v>
-      </c>
+      <c r="D26" s="2">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1106,67 +1153,132 @@
         <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2">
         <v>100</v>
       </c>
-      <c r="F32" s="4">
-        <v>15</v>
-      </c>
-      <c r="G32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
